--- a/ASISTENCIA.xlsx
+++ b/ASISTENCIA.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>NRO</t>
   </si>
@@ -248,7 +248,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -293,6 +293,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4002,16 +4005,1566 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId14" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
+        <control shapeId="1025" r:id="rId14" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId14" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId16" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId16" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId17" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId17" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId18" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId18" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId19" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId19" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId20" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId20" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId21" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId21" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId22" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId22" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId23" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId23" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId24" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId24" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId25" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId25" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId26" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId26" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId27" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId27" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId28" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId28" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId29" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId29" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId30" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId30" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId31" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId31" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId32" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId32" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId33" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId33" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId34" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId34" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId35" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId35" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId36" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId36" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId37" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId37" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId38" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId38" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId39" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId39" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId40" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId40" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId41" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId41" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId42" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId42" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId43" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId43" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId44" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId44" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId45" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId45" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId46" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId46" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId47" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId47" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId48" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId48" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId49" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId49" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId50" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId50" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId51" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId51" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId52" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId52" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId53" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId53" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId54" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId54" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId55" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId55" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId56" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId56" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1067" r:id="rId57" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1067" r:id="rId57" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1068" r:id="rId58" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1068" r:id="rId58" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1069" r:id="rId59" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1069" r:id="rId59" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1070" r:id="rId60" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1070" r:id="rId60" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1071" r:id="rId61" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1071" r:id="rId61" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1072" r:id="rId62" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1072" r:id="rId62" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1073" r:id="rId63" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1073" r:id="rId63" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1074" r:id="rId64" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1074" r:id="rId64" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1075" r:id="rId65" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1075" r:id="rId65" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1076" r:id="rId66" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1076" r:id="rId66" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1077" r:id="rId67" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1077" r:id="rId67" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1078" r:id="rId68" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1078" r:id="rId68" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1079" r:id="rId69" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1079" r:id="rId69" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1080" r:id="rId70" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1080" r:id="rId70" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1081" r:id="rId71" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1081" r:id="rId71" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1082" r:id="rId72" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1082" r:id="rId72" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1083" r:id="rId73" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1083" r:id="rId73" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1084" r:id="rId74" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1084" r:id="rId74" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1085" r:id="rId75" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1085" r:id="rId75" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1086" r:id="rId76" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1086" r:id="rId76" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1087" r:id="rId77" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>9</xdr:row>
@@ -4022,1557 +5575,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1087" r:id="rId14" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId16" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1086" r:id="rId16" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId17" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1085" r:id="rId17" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId18" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1084" r:id="rId18" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId19" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1083" r:id="rId19" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId20" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1082" r:id="rId20" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId21" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1081" r:id="rId21" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId22" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1080" r:id="rId22" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId23" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1079" r:id="rId23" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId24" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1078" r:id="rId24" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId25" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1077" r:id="rId25" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId26" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1076" r:id="rId26" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId27" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1075" r:id="rId27" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId28" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1074" r:id="rId28" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId29" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1073" r:id="rId29" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId30" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1072" r:id="rId30" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId31" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1071" r:id="rId31" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId32" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1070" r:id="rId32" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId33" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1069" r:id="rId33" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId34" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1068" r:id="rId34" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId35" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1067" r:id="rId35" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId36" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1066" r:id="rId36" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId37" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1065" r:id="rId37" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId38" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1064" r:id="rId38" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId39" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1063" r:id="rId39" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId40" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId40" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId41" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId41" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId42" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId42" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId43" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId43" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId44" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId44" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId45" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId45" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId46" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId46" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId47" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId47" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId48" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId48" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId49" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId49" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId50" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId50" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId51" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId51" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId52" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId52" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId53" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId53" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId54" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId54" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId55" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId55" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId56" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId56" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId57" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId57" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId58" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId58" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId59" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId59" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId60" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId60" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId61" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId61" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId62" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId62" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId63" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId63" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId64" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId64" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId65" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId65" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId66" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId66" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId67" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId67" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId68" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId68" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId69" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId69" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId70" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId70" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId71" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId71" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId72" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId72" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId73" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId73" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId74" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId74" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId75" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId75" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId76" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId76" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId77" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId77" name="Control 1"/>
+        <control shapeId="1087" r:id="rId77" name="Control 63"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -5583,8 +5586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5651,7 +5654,9 @@
       <c r="C4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
@@ -5707,7 +5712,9 @@
       <c r="C8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
@@ -5733,7 +5740,9 @@
       <c r="C10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
@@ -5759,7 +5768,9 @@
       <c r="C12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
     </row>

--- a/ASISTENCIA.xlsx
+++ b/ASISTENCIA.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>NRO</t>
   </si>
@@ -4005,1577 +4005,1577 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId14" name="Control 1">
+        <control shapeId="1087" r:id="rId14" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1087" r:id="rId14" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1086" r:id="rId16" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1086" r:id="rId16" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1085" r:id="rId17" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1085" r:id="rId17" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1084" r:id="rId18" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1084" r:id="rId18" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1083" r:id="rId19" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1083" r:id="rId19" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1082" r:id="rId20" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1082" r:id="rId20" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1081" r:id="rId21" name="Control 57">
           <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1081" r:id="rId21" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1080" r:id="rId22" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1080" r:id="rId22" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1079" r:id="rId23" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1079" r:id="rId23" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1078" r:id="rId24" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1078" r:id="rId24" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1077" r:id="rId25" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1077" r:id="rId25" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1076" r:id="rId26" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1076" r:id="rId26" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1075" r:id="rId27" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1075" r:id="rId27" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1074" r:id="rId28" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1074" r:id="rId28" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1073" r:id="rId29" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1073" r:id="rId29" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1072" r:id="rId30" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1072" r:id="rId30" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1071" r:id="rId31" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1071" r:id="rId31" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1070" r:id="rId32" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1070" r:id="rId32" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1069" r:id="rId33" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1069" r:id="rId33" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1068" r:id="rId34" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1068" r:id="rId34" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1067" r:id="rId35" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1067" r:id="rId35" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId36" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId36" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId37" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId37" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId38" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId38" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId39" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId39" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId40" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId40" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId41" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId41" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId42" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId42" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId43" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId43" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId44" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId44" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId45" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId45" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId46" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId46" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId47" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId47" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId48" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId48" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId49" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId49" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId50" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId50" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId51" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId51" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId52" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId52" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId53" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId53" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId54" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1048" r:id="rId54" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1047" r:id="rId55" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1047" r:id="rId55" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1046" r:id="rId56" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId56" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId57" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId57" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1044" r:id="rId58" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1044" r:id="rId58" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId59" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1043" r:id="rId59" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId60" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId60" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId61" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId61" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId62" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId62" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId63" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId63" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId64" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1038" r:id="rId64" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1037" r:id="rId65" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1037" r:id="rId65" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1036" r:id="rId66" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId66" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId67" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId67" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1034" r:id="rId68" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1034" r:id="rId68" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId69" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId69" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId70" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId70" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId71" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId71" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId72" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId72" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId73" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId73" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId74" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId74" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId75" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId75" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId76" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId14" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId16" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId76" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId77" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId16" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId17" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId17" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId18" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId18" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId19" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId19" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId20" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId20" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId21" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1031" r:id="rId21" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId22" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1032" r:id="rId22" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId23" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1033" r:id="rId23" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId24" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1034" r:id="rId24" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId25" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId25" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId26" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId26" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId27" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1037" r:id="rId27" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId28" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1038" r:id="rId28" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId29" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId29" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId30" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId30" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId31" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId31" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId32" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId32" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId33" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId33" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId34" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1044" r:id="rId34" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId35" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId35" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId36" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1046" r:id="rId36" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId37" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1047" r:id="rId37" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId38" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1048" r:id="rId38" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId39" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId39" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId40" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId40" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId41" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId41" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId42" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId42" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId43" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId43" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId44" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId44" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId45" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId45" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId46" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId46" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId47" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId47" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId48" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId48" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId49" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId49" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId50" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId50" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId51" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId51" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId52" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId52" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId53" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1063" r:id="rId53" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId54" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1064" r:id="rId54" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId55" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1065" r:id="rId55" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId56" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1066" r:id="rId56" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId57" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1067" r:id="rId57" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1068" r:id="rId58" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1068" r:id="rId58" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1069" r:id="rId59" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1069" r:id="rId59" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1070" r:id="rId60" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1070" r:id="rId60" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1071" r:id="rId61" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1071" r:id="rId61" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1072" r:id="rId62" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1072" r:id="rId62" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1073" r:id="rId63" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1073" r:id="rId63" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1074" r:id="rId64" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1074" r:id="rId64" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1075" r:id="rId65" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1075" r:id="rId65" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1076" r:id="rId66" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1076" r:id="rId66" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1077" r:id="rId67" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1077" r:id="rId67" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1078" r:id="rId68" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1078" r:id="rId68" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1079" r:id="rId69" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1079" r:id="rId69" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1080" r:id="rId70" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1080" r:id="rId70" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1081" r:id="rId71" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1081" r:id="rId71" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1082" r:id="rId72" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1082" r:id="rId72" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1083" r:id="rId73" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1083" r:id="rId73" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1084" r:id="rId74" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1084" r:id="rId74" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1085" r:id="rId75" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1085" r:id="rId75" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1086" r:id="rId76" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1086" r:id="rId76" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1087" r:id="rId77" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1087" r:id="rId77" name="Control 63"/>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId77" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -5587,7 +5587,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5626,7 +5626,9 @@
       <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
@@ -5640,7 +5642,9 @@
       <c r="C3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
@@ -5670,7 +5674,9 @@
       <c r="C5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>

--- a/ASISTENCIA.xlsx
+++ b/ASISTENCIA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>NRO</t>
   </si>
@@ -149,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,7 +160,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -457,14 +456,14 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="8"/>
+    <col min="5" max="5" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -503,7 +502,9 @@
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -521,7 +522,9 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -557,16 +560,18 @@
       <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2"/>
@@ -603,7 +608,9 @@
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -633,7 +640,9 @@
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -657,13 +666,15 @@
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B2:C12">
